--- a/RecSportsSchedule.xlsx
+++ b/RecSportsSchedule.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimberlyprice/Documents/LearnDialogue/Dialogue Class/TFTM/UFRecInfo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickey/UFRecInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="-5140" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$L$174</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -925,11 +925,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -7506,7 +7509,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L2"/>
+  <autoFilter ref="A2:L174"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>